--- a/app/data/absenteeism_data_38.xlsx
+++ b/app/data/absenteeism_data_38.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37930</v>
+        <v>53453</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fernando Sales</t>
+          <t>Enzo Novaes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>10781.63</v>
+        <v>6619.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60519</v>
+        <v>10669</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calebe Lima</t>
+          <t>Ian da Paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>8970.799999999999</v>
+        <v>6177.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25696</v>
+        <v>78241</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kevin Gomes</t>
+          <t>Carlos Eduardo da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>2875.87</v>
+        <v>4514.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64780</v>
+        <v>77456</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cauã Aragão</t>
+          <t>Sr. Vinicius Santos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,167 +581,167 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>10299.82</v>
+        <v>11699.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91616</v>
+        <v>12050</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arthur Nogueira</t>
+          <t>Isaac Melo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>3223.86</v>
+        <v>9688.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>49221</v>
+        <v>82903</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Kaique Castro</t>
+          <t>Dra. Heloísa das Neves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>4687.99</v>
+        <v>10614.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56221</v>
+        <v>91864</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Sophia Lopes</t>
+          <t>Melissa da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>10186.68</v>
+        <v>12364.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28147</v>
+        <v>47824</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Felipe Melo</t>
+          <t>Augusto Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>7300.66</v>
+        <v>5686.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>83380</v>
+        <v>35033</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Felipe Moreira</t>
+          <t>Helena Ferreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>2795.02</v>
+        <v>3028.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84111</v>
+        <v>51478</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Pedro Lucas Farias</t>
+          <t>Lucas Oliveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>3922.28</v>
+        <v>10104.63</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_38.xlsx
+++ b/app/data/absenteeism_data_38.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21527</v>
+        <v>63804</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Felipe Gonçalves</t>
+          <t>Rafael Almeida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,118 +490,118 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>7635.83</v>
+        <v>9600.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42260</v>
+        <v>46280</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Igor Araújo</t>
+          <t>Felipe Farias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>2880.23</v>
+        <v>9039.559999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38004</v>
+        <v>66078</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gustavo Cardoso</t>
+          <t>Daniela Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>8903.76</v>
+        <v>9426.620000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43539</v>
+        <v>55517</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitória Alves</t>
+          <t>Gustavo Henrique Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>8088.17</v>
+        <v>11224.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55107</v>
+        <v>45849</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Kevin Pires</t>
+          <t>Nicolas Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>8194.530000000001</v>
+        <v>10742.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85212</v>
+        <v>56482</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Pedro Correia</t>
+          <t>Sr. Pedro Lucas da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>11925</v>
+        <v>6862.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57175</v>
+        <v>21953</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Matheus Azevedo</t>
+          <t>Sr. Francisco Nunes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>6202.5</v>
+        <v>7619.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64661</v>
+        <v>167</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Samuel Viana</t>
+          <t>Milena Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>3905.96</v>
+        <v>6418.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9440</v>
+        <v>71563</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Isaac Jesus</t>
+          <t>Vitor Gabriel Nunes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>2516.82</v>
+        <v>4559.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86799</v>
+        <v>40696</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Otávio Cardoso</t>
+          <t>Dr. Luiz Gustavo Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>2913.72</v>
+        <v>7940.06</v>
       </c>
     </row>
   </sheetData>
